--- a/downloaded_files/CMPS201_Tutorial-35672.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35672.xlsx
@@ -114,15 +114,6 @@
     <x:t>Adham Moatasem Bellah Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>امير ضياء الدين ابو العلا حمزه جيره الله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amir</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230167</x:t>
   </x:si>
   <x:si>
@@ -294,6 +285,24 @@
     <x:t>Mohammed Abdelrahman Abdelhamid Heliel</x:t>
   </x:si>
   <x:si>
+    <x:t>1230246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود حسن محمود عبدالغنى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Hassan Mahmoud Abdel-Ghani</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230116</x:t>
   </x:si>
   <x:si>
@@ -301,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Samir Mohamed Younis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين سامى حموده بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230122</x:t>
@@ -1149,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4212832523</x:v>
+        <x:v>45907.4235099884</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1181,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4235099884</x:v>
+        <x:v>45907.4200421296</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1213,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4200421296</x:v>
+        <x:v>45916.0178555556</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45916.0178555556</x:v>
+        <x:v>45907.4199981134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4199981134</x:v>
+        <x:v>45907.4203944444</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4203944444</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45927.4315463773</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45909.4191235301</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4191235301</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45907.4200765394</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4200765394</x:v>
+        <x:v>45907.4210290856</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4210290856</x:v>
+        <x:v>45907.420866169</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.420866169</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45907.4201049769</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4201049769</x:v>
+        <x:v>45927.4187716435</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.415046956</x:v>
+        <x:v>45927.4163854167</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4194798958</x:v>
+        <x:v>45907.415046956</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Tutorial-35672.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35672.xlsx
@@ -114,6 +114,15 @@
     <x:t>Adham Moatasem Bellah Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اكمل محمد عماد عصمت نورالدين عصمت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akmal mohamed emad esmat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230167</x:t>
   </x:si>
   <x:si>
@@ -301,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Hassan Mahmoud Abdel-Ghani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفي سمير محمد يونس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Samir Mohamed Younis</x:t>
   </x:si>
   <x:si>
     <x:t>1230122</x:t>
@@ -1149,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4235099884</x:v>
+        <x:v>45927.4705346412</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1181,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200421296</x:v>
+        <x:v>45907.4235099884</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1213,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45916.0178555556</x:v>
+        <x:v>45907.4200421296</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4199981134</x:v>
+        <x:v>45916.0178555556</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4203944444</x:v>
+        <x:v>45907.4199981134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45907.4203944444</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4315463773</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4191235301</x:v>
+        <x:v>45927.4315463773</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45909.4191235301</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4200765394</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4210290856</x:v>
+        <x:v>45907.4200765394</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.420866169</x:v>
+        <x:v>45907.4210290856</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45907.420866169</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4201049769</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4187716435</x:v>
+        <x:v>45907.4201049769</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.4163854167</x:v>
+        <x:v>45927.4187716435</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.415046956</x:v>
+        <x:v>45927.4163854167</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Tutorial-35672.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35672.xlsx
@@ -255,7 +255,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230239</x:t>
@@ -300,7 +300,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1230250</x:t>
@@ -327,7 +327,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>
@@ -779,7 +779,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="49.230625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/CMPS201_Tutorial-35672.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35672.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230145</x:t>
